--- a/516 Project0.xlsx
+++ b/516 Project0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27140" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="259">
   <si>
     <t xml:space="preserve">MongoDB </t>
   </si>
@@ -710,7 +710,107 @@
     <t>Apache Hive</t>
   </si>
   <si>
-    <t>data warehouse software for querying and managing large distributed datasets, built on Hadoop</t>
+    <t>Data warehouse software for querying and managing large distributed datasets, built on Hadoop</t>
+  </si>
+  <si>
+    <t>IBM Informix</t>
+  </si>
+  <si>
+    <t>Hybrid database system that is capable of supporting relational and non-relational data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informix 12.1 is the only database that allows different hardware and operating systems from cluster to cluster in a distributed environment. </t>
+  </si>
+  <si>
+    <t>Real-time Analytics</t>
+  </si>
+  <si>
+    <t>Power OLTP and OLAP workloads and successfully meet service-level agreements (SLAs) for each</t>
+  </si>
+  <si>
+    <t>Sets of options for keeping data available at all times, including zero downtime for maintenance</t>
+  </si>
+  <si>
+    <t>Solves the big data challenge of sensor data with unmatched performance and scalability for managing time series data</t>
+  </si>
+  <si>
+    <t>Sensor data management</t>
+  </si>
+  <si>
+    <t>Fast, Always-on Transactions</t>
+  </si>
+  <si>
+    <t>NoSQL capability</t>
+  </si>
+  <si>
+    <t>Unleashes new capabilities, giving you a way to combine unstructured and structured data in a smart way, bringing NoSQL to your SQL database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memcached Cloud </t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>LiveJournal
+Wikipedia
+Flickr
+Bebo
+Twitter
+Typepad
+Yellowbot
+Youtube
+WordPress.com
+Craigslist
+Mixi</t>
+  </si>
+  <si>
+    <t>Free &amp; open source</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In-memory key-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its API is available for most popular languages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memcached's internal memory managemen is more efficient because Memcached will consume comparatively less memory resources for metadata. Which are the only data type that are supported by Memcached, are ideal for storing data that's only being read because strings require no further processing. </t>
+  </si>
+  <si>
+    <t>Due in part to its design and in part to its simpler capabilities, Memcached is much easier to scale.</t>
+  </si>
+  <si>
+    <t>Horizontal scaling</t>
+  </si>
+  <si>
+    <t>Server can manipulate data directly</t>
+  </si>
+  <si>
+    <t>Caching small and static data</t>
+  </si>
+  <si>
+    <t>Doesn't do anything besides be an in-memory key/value store</t>
+  </si>
+  <si>
+    <t>Caches sharded by client do not scale across AWS zones</t>
+  </si>
+  <si>
+    <t>Adding a member to the pool requires reconfiguring and rebooting the client</t>
+  </si>
+  <si>
+    <t>Unbalanced memcached clusters require a full system restart</t>
+  </si>
+  <si>
+    <t>http://www.bigdatalittlegeek.com/blog/2014/3/25/memcached-vs-redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> requires consideration of data size to configure well</t>
+  </si>
+  <si>
+    <t>SENTINEL, the automated failover which promotes a slave to master, is perpetually on the redis unstable branch</t>
+  </si>
+  <si>
+    <t>Master-slave architecture means if the master wipes out, and SENTINEL doesn't work, the system is sad</t>
   </si>
 </sst>
 </file>
@@ -778,13 +878,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -865,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -925,6 +1033,14 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -1257,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2459,178 +2575,320 @@
     </row>
     <row r="149" spans="1:7">
       <c r="E149" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="E150" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="C150" s="2" t="s">
+    <row r="151" spans="1:7">
+      <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="7" t="s">
+      <c r="E152" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30">
+      <c r="E153" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30">
+      <c r="E154" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30">
-      <c r="A153" s="7" t="s">
+    <row r="156" spans="1:7" ht="30">
+      <c r="A156" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30">
-      <c r="C155" s="2" t="s">
+    <row r="158" spans="1:7" ht="30">
+      <c r="C158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F158" s="2">
         <v>27</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="E156" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="E157" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="E158" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="E159" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="E160" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="E161" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="E162" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="E163" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="7" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30">
-      <c r="C162" s="2" t="s">
+    <row r="165" spans="1:7" ht="30">
+      <c r="C165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F165" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="7" t="s">
+    <row r="166" spans="1:7">
+      <c r="A166" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30">
-      <c r="C164" s="2" t="s">
+    <row r="167" spans="1:7" ht="30">
+      <c r="C167" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F167" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="7" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="29" customHeight="1">
-      <c r="C166" s="2" t="s">
+    <row r="169" spans="1:7" ht="29" customHeight="1">
+      <c r="C169" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F169" s="2">
         <v>28</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="45">
-      <c r="D167" s="2" t="s">
+    <row r="170" spans="1:7" ht="45">
+      <c r="D170" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="75">
-      <c r="D168" s="2" t="s">
+    <row r="171" spans="1:7" ht="75">
+      <c r="D171" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75">
-      <c r="D169" s="2" t="s">
+    <row r="172" spans="1:7" ht="75">
+      <c r="D172" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="30">
-      <c r="E170" s="2" t="s">
+    <row r="173" spans="1:7" ht="30">
+      <c r="E173" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60">
-      <c r="D171" s="2" t="s">
+    <row r="174" spans="1:7" ht="60">
+      <c r="D174" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="45">
-      <c r="A172" s="7" t="s">
+    <row r="175" spans="1:7" ht="45">
+      <c r="A175" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30">
+      <c r="C177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30">
+      <c r="E178" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30">
+      <c r="D179" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30">
+      <c r="D180" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30">
+      <c r="D181" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30">
+      <c r="D182" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="165">
+      <c r="A183" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="C184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="E185" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="60">
+      <c r="D186" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30">
+      <c r="D187" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="C188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F188" s="2">
+        <v>29</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="E189" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="E190" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="E191" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
